--- a/mbs-perturbation/chain/elm/smote/chain_elm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/chain/elm/smote/chain_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5276497695852534</v>
+        <v>0.5635838150289018</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6907993966817496</v>
+        <v>0.7208872458410351</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6356629272699895</v>
+        <v>0.7828677127184591</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6209386281588448</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7782805429864253</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6907630522088354</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6922605580693816</v>
+        <v>0.6867468341503267</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.633245382585752</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7754442649434572</v>
+        <v>0.6746987951807228</v>
       </c>
       <c r="E4" t="n">
-        <v>0.729280303030303</v>
+        <v>0.5225000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5611510791366906</v>
+        <v>0.5065274151436031</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7188940092165897</v>
+        <v>0.6724436741767763</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5822365932985402</v>
+        <v>0.5751141201210442</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5137844611528822</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9030837004405287</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6549520766773163</v>
+        <v>0.7844660194174757</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5065133954737102</v>
+        <v>0.7476415094339622</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5713538641238847</v>
+        <v>0.5513014207604842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9362728486853907</v>
+        <v>0.9905660377358491</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7061705599455896</v>
+        <v>0.7057104145288358</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6291907554283849</v>
+        <v>0.6629740352847585</v>
       </c>
     </row>
   </sheetData>
